--- a/docs/schemes/sea.xlsx
+++ b/docs/schemes/sea.xlsx
@@ -13,6 +13,20 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>пусто</t>
+  </si>
+  <si>
+    <t>корабль</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> вокруг корабля</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,13 +163,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
     <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -168,6 +190,49 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -464,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E4:O15"/>
+  <dimension ref="E2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,7 +540,30 @@
     <col min="5" max="15" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="5:15">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" ht="15.75" thickBot="1">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="5" spans="5:15" ht="30" customHeight="1" thickBot="1">
       <c r="E5" s="5"/>
       <c r="F5" s="5">
@@ -514,27 +602,39 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="5:15" ht="30" customHeight="1" thickBot="1">
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -547,24 +647,40 @@
       <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="5:15" ht="30" customHeight="1" thickBot="1">
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -577,9 +693,15 @@
       <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -638,7 +760,9 @@
         <v>8</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -653,7 +777,9 @@
         <v>9</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -665,8 +791,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6:O15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/schemes/sea.xlsx
+++ b/docs/schemes/sea.xlsx
@@ -163,7 +163,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -178,56 +178,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -532,7 +482,7 @@
   <dimension ref="E2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -627,13 +577,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -648,13 +598,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -673,13 +623,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -694,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>

--- a/docs/schemes/sea.xlsx
+++ b/docs/schemes/sea.xlsx
@@ -49,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -59,6 +59,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,11 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,6 +160,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,18 +494,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:O15"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" hidden="1" customWidth="1"/>
     <col min="5" max="15" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:15">
+    <row r="1" spans="5:15" ht="2.25" customHeight="1"/>
+    <row r="2" spans="5:15" ht="3" customHeight="1" thickBot="1">
       <c r="E2">
         <v>0</v>
       </c>
@@ -498,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:15">
+    <row r="3" spans="5:15" ht="15.75" hidden="1" thickBot="1">
       <c r="E3">
         <v>1</v>
       </c>
@@ -506,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="5:15" ht="15.75" thickBot="1">
+    <row r="4" spans="5:15" ht="15.75" hidden="1" thickBot="1">
       <c r="E4">
         <v>2</v>
       </c>
@@ -515,229 +533,229 @@
       </c>
     </row>
     <row r="5" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>5</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>6</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>7</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>8</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>6</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>8</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="5:15" ht="30" customHeight="1" thickBot="1">
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>9</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6:O15">

--- a/docs/schemes/sea.xlsx
+++ b/docs/schemes/sea.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,9 +732,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -749,13 +755,23 @@
         <v>1</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6:O15">
